--- a/LibraryManagementBackground/Resource/Tool/标签转换导入表格.xlsx
+++ b/LibraryManagementBackground/Resource/Tool/标签转换导入表格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -18,9 +18,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>电子标签</t>
+  </si>
+  <si>
+    <t>仪器名称</t>
+  </si>
+  <si>
+    <t>仪器型号</t>
+  </si>
+  <si>
+    <t>F410E666500104E0</t>
+  </si>
+  <si>
+    <t>Luvaglio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +53,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +162,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +192,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +244,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +413,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LibraryManagementBackground/Resource/Tool/标签转换导入表格.xlsx
+++ b/LibraryManagementBackground/Resource/Tool/标签转换导入表格.xlsx
@@ -96,9 +96,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -416,7 +421,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -437,13 +442,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
